--- a/Data.xlsx
+++ b/Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>ruby</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>monchi</t>
+  </si>
+  <si>
+    <t>monchito</t>
   </si>
 </sst>
 </file>
@@ -303,7 +312,29 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
